--- a/Data/Upbit_NEOKRW_days_1.xlsx
+++ b/Data/Upbit_NEOKRW_days_1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="637">
   <si>
     <t>Time</t>
   </si>
@@ -1098,6 +1098,834 @@
   </si>
   <si>
     <t>2018-03-23T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-24T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-24T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-25T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-25T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-26T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-26T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-27T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-27T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-28T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-28T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-29T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-29T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-30T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-30T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-31T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-31T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-01T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-01T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-02T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-02T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-03T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-03T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-04T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-04T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-05T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-05T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-06T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-06T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-07T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-07T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-08T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-08T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-09T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-09T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-10T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-10T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-11T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-11T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-12T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-12T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-13T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-13T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-14T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-14T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-15T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-15T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-16T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-16T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-17T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-17T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-18T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-18T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-19T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-19T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-20T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-20T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-21T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-21T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-22T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-22T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-23T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-23T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-24T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-24T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-25T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-25T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-26T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-26T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-27T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-27T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-28T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-28T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-29T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-29T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-30T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-30T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-01T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-01T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-02T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-02T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-03T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-03T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-04T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-04T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-05T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-05T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-06T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-06T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-07T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-07T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-08T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-08T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-09T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-09T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-10T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-10T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-11T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-11T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-12T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-12T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-13T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-13T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-14T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-14T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-15T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-15T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-16T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-16T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-17T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-17T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-18T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-18T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-19T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-19T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-20T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-20T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-21T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-21T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-22T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-22T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-23T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-23T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-24T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-24T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-25T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-25T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-26T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-26T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-27T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-27T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-28T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-28T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-29T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-29T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-30T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-30T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-31T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-31T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-01T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-01T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-02T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-02T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-03T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-03T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-04T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-04T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-05T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-05T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-06T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-06T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-07T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-07T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-08T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-08T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-09T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-09T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-10T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-10T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-11T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-11T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-12T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-12T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-13T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-13T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-14T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-14T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-15T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-15T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-16T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-16T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-17T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-17T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-18T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-18T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-19T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-19T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-20T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-20T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-21T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-21T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-22T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-22T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-23T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-23T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-24T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-24T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-25T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-25T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-26T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-26T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-27T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-27T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-28T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-28T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-29T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-29T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-30T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-30T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-01T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-01T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-02T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-02T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-03T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-03T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-04T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-04T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-05T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-05T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-06T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-06T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-07T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-07T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-08T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-08T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-09T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-09T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-10T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-10T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-11T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-11T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-12T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-12T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-13T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-13T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-14T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-14T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-15T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-15T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-16T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-16T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-17T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-17T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-18T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-18T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-19T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-19T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-20T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-20T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-21T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-21T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-22T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-22T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-23T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-23T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-24T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-24T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-25T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-25T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-26T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-26T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-27T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-27T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-28T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-28T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-29T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-29T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-30T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-30T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-31T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-31T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-01T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-01T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-02T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-02T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-03T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-03T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-04T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-04T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-05T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-05T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-06T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-06T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-07T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-07T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-08T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-08T09:00:00+09:00</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +2261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G178"/>
+  <dimension ref="A1:G316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5526,13 +6354,3187 @@
         <v>78120</v>
       </c>
       <c r="E178" t="n">
-        <v>71980</v>
+        <v>71000</v>
       </c>
       <c r="F178" t="n">
+        <v>75820</v>
+      </c>
+      <c r="G178" t="n">
+        <v>141762.35300345</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>361</v>
+      </c>
+      <c r="B179" t="s">
+        <v>362</v>
+      </c>
+      <c r="C179" t="n">
+        <v>75880</v>
+      </c>
+      <c r="D179" t="n">
+        <v>77900</v>
+      </c>
+      <c r="E179" t="n">
         <v>73000</v>
       </c>
-      <c r="G178" t="n">
-        <v>66139.83594632</v>
+      <c r="F179" t="n">
+        <v>73070</v>
+      </c>
+      <c r="G179" t="n">
+        <v>69739.2517319</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>363</v>
+      </c>
+      <c r="B180" t="s">
+        <v>364</v>
+      </c>
+      <c r="C180" t="n">
+        <v>73090</v>
+      </c>
+      <c r="D180" t="n">
+        <v>74990</v>
+      </c>
+      <c r="E180" t="n">
+        <v>71540</v>
+      </c>
+      <c r="F180" t="n">
+        <v>72650</v>
+      </c>
+      <c r="G180" t="n">
+        <v>40972.19750005</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>365</v>
+      </c>
+      <c r="B181" t="s">
+        <v>366</v>
+      </c>
+      <c r="C181" t="n">
+        <v>72890</v>
+      </c>
+      <c r="D181" t="n">
+        <v>73650</v>
+      </c>
+      <c r="E181" t="n">
+        <v>62240</v>
+      </c>
+      <c r="F181" t="n">
+        <v>65850</v>
+      </c>
+      <c r="G181" t="n">
+        <v>121724.65983784</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>367</v>
+      </c>
+      <c r="B182" t="s">
+        <v>368</v>
+      </c>
+      <c r="C182" t="n">
+        <v>65850</v>
+      </c>
+      <c r="D182" t="n">
+        <v>67760</v>
+      </c>
+      <c r="E182" t="n">
+        <v>58010</v>
+      </c>
+      <c r="F182" t="n">
+        <v>61450</v>
+      </c>
+      <c r="G182" t="n">
+        <v>126813.37605073</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>369</v>
+      </c>
+      <c r="B183" t="s">
+        <v>370</v>
+      </c>
+      <c r="C183" t="n">
+        <v>61450</v>
+      </c>
+      <c r="D183" t="n">
+        <v>65980</v>
+      </c>
+      <c r="E183" t="n">
+        <v>60800</v>
+      </c>
+      <c r="F183" t="n">
+        <v>62790</v>
+      </c>
+      <c r="G183" t="n">
+        <v>56733.34163345</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>371</v>
+      </c>
+      <c r="B184" t="s">
+        <v>372</v>
+      </c>
+      <c r="C184" t="n">
+        <v>62790</v>
+      </c>
+      <c r="D184" t="n">
+        <v>63800</v>
+      </c>
+      <c r="E184" t="n">
+        <v>57010</v>
+      </c>
+      <c r="F184" t="n">
+        <v>57600</v>
+      </c>
+      <c r="G184" t="n">
+        <v>108297.58107862</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>373</v>
+      </c>
+      <c r="B185" t="s">
+        <v>374</v>
+      </c>
+      <c r="C185" t="n">
+        <v>57550</v>
+      </c>
+      <c r="D185" t="n">
+        <v>59940</v>
+      </c>
+      <c r="E185" t="n">
+        <v>54230</v>
+      </c>
+      <c r="F185" t="n">
+        <v>55550</v>
+      </c>
+      <c r="G185" t="n">
+        <v>120449.35050831</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>375</v>
+      </c>
+      <c r="B186" t="s">
+        <v>376</v>
+      </c>
+      <c r="C186" t="n">
+        <v>55560</v>
+      </c>
+      <c r="D186" t="n">
+        <v>58800</v>
+      </c>
+      <c r="E186" t="n">
+        <v>55370</v>
+      </c>
+      <c r="F186" t="n">
+        <v>55610</v>
+      </c>
+      <c r="G186" t="n">
+        <v>60275.54258409</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>377</v>
+      </c>
+      <c r="B187" t="s">
+        <v>378</v>
+      </c>
+      <c r="C187" t="n">
+        <v>55860</v>
+      </c>
+      <c r="D187" t="n">
+        <v>55940</v>
+      </c>
+      <c r="E187" t="n">
+        <v>49690</v>
+      </c>
+      <c r="F187" t="n">
+        <v>51770</v>
+      </c>
+      <c r="G187" t="n">
+        <v>89517.90950417001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>379</v>
+      </c>
+      <c r="B188" t="s">
+        <v>380</v>
+      </c>
+      <c r="C188" t="n">
+        <v>51770</v>
+      </c>
+      <c r="D188" t="n">
+        <v>55450</v>
+      </c>
+      <c r="E188" t="n">
+        <v>50700</v>
+      </c>
+      <c r="F188" t="n">
+        <v>53670</v>
+      </c>
+      <c r="G188" t="n">
+        <v>76104.96317762999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>381</v>
+      </c>
+      <c r="B189" t="s">
+        <v>382</v>
+      </c>
+      <c r="C189" t="n">
+        <v>53550</v>
+      </c>
+      <c r="D189" t="n">
+        <v>59060</v>
+      </c>
+      <c r="E189" t="n">
+        <v>52520</v>
+      </c>
+      <c r="F189" t="n">
+        <v>58100</v>
+      </c>
+      <c r="G189" t="n">
+        <v>116584.52188239</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
+        <v>383</v>
+      </c>
+      <c r="B190" t="s">
+        <v>384</v>
+      </c>
+      <c r="C190" t="n">
+        <v>58330</v>
+      </c>
+      <c r="D190" t="n">
+        <v>59030</v>
+      </c>
+      <c r="E190" t="n">
+        <v>51340</v>
+      </c>
+      <c r="F190" t="n">
+        <v>52250</v>
+      </c>
+      <c r="G190" t="n">
+        <v>83285.97377532</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>385</v>
+      </c>
+      <c r="B191" t="s">
+        <v>386</v>
+      </c>
+      <c r="C191" t="n">
+        <v>52100</v>
+      </c>
+      <c r="D191" t="n">
+        <v>52930</v>
+      </c>
+      <c r="E191" t="n">
+        <v>50010</v>
+      </c>
+      <c r="F191" t="n">
+        <v>51320</v>
+      </c>
+      <c r="G191" t="n">
+        <v>82475.45355960001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>387</v>
+      </c>
+      <c r="B192" t="s">
+        <v>388</v>
+      </c>
+      <c r="C192" t="n">
+        <v>51320</v>
+      </c>
+      <c r="D192" t="n">
+        <v>51930</v>
+      </c>
+      <c r="E192" t="n">
+        <v>48680</v>
+      </c>
+      <c r="F192" t="n">
+        <v>49690</v>
+      </c>
+      <c r="G192" t="n">
+        <v>52547.79730304</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>389</v>
+      </c>
+      <c r="B193" t="s">
+        <v>390</v>
+      </c>
+      <c r="C193" t="n">
+        <v>49690</v>
+      </c>
+      <c r="D193" t="n">
+        <v>51990</v>
+      </c>
+      <c r="E193" t="n">
+        <v>49160</v>
+      </c>
+      <c r="F193" t="n">
+        <v>50610</v>
+      </c>
+      <c r="G193" t="n">
+        <v>39998.35099865</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>391</v>
+      </c>
+      <c r="B194" t="s">
+        <v>392</v>
+      </c>
+      <c r="C194" t="n">
+        <v>50740</v>
+      </c>
+      <c r="D194" t="n">
+        <v>53400</v>
+      </c>
+      <c r="E194" t="n">
+        <v>50290</v>
+      </c>
+      <c r="F194" t="n">
+        <v>53400</v>
+      </c>
+      <c r="G194" t="n">
+        <v>26344.50963272</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>393</v>
+      </c>
+      <c r="B195" t="s">
+        <v>394</v>
+      </c>
+      <c r="C195" t="n">
+        <v>53330</v>
+      </c>
+      <c r="D195" t="n">
+        <v>62720</v>
+      </c>
+      <c r="E195" t="n">
+        <v>53210</v>
+      </c>
+      <c r="F195" t="n">
+        <v>58000</v>
+      </c>
+      <c r="G195" t="n">
+        <v>869535.26941226</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>395</v>
+      </c>
+      <c r="B196" t="s">
+        <v>396</v>
+      </c>
+      <c r="C196" t="n">
+        <v>58030</v>
+      </c>
+      <c r="D196" t="n">
+        <v>58270</v>
+      </c>
+      <c r="E196" t="n">
+        <v>53700</v>
+      </c>
+      <c r="F196" t="n">
+        <v>56950</v>
+      </c>
+      <c r="G196" t="n">
+        <v>132882.94579679</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" t="s">
+        <v>397</v>
+      </c>
+      <c r="B197" t="s">
+        <v>398</v>
+      </c>
+      <c r="C197" t="n">
+        <v>56950</v>
+      </c>
+      <c r="D197" t="n">
+        <v>64120</v>
+      </c>
+      <c r="E197" t="n">
+        <v>56410</v>
+      </c>
+      <c r="F197" t="n">
+        <v>62230</v>
+      </c>
+      <c r="G197" t="n">
+        <v>577611.40837357</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" t="s">
+        <v>399</v>
+      </c>
+      <c r="B198" t="s">
+        <v>400</v>
+      </c>
+      <c r="C198" t="n">
+        <v>62230</v>
+      </c>
+      <c r="D198" t="n">
+        <v>69440</v>
+      </c>
+      <c r="E198" t="n">
+        <v>58010</v>
+      </c>
+      <c r="F198" t="n">
+        <v>68650</v>
+      </c>
+      <c r="G198" t="n">
+        <v>692076.93084148</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>401</v>
+      </c>
+      <c r="B199" t="s">
+        <v>402</v>
+      </c>
+      <c r="C199" t="n">
+        <v>68500</v>
+      </c>
+      <c r="D199" t="n">
+        <v>71590</v>
+      </c>
+      <c r="E199" t="n">
+        <v>63800</v>
+      </c>
+      <c r="F199" t="n">
+        <v>65960</v>
+      </c>
+      <c r="G199" t="n">
+        <v>357303.1437039</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>403</v>
+      </c>
+      <c r="B200" t="s">
+        <v>404</v>
+      </c>
+      <c r="C200" t="n">
+        <v>65980</v>
+      </c>
+      <c r="D200" t="n">
+        <v>69140</v>
+      </c>
+      <c r="E200" t="n">
+        <v>64380</v>
+      </c>
+      <c r="F200" t="n">
+        <v>66520</v>
+      </c>
+      <c r="G200" t="n">
+        <v>139795.59478436</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>405</v>
+      </c>
+      <c r="B201" t="s">
+        <v>406</v>
+      </c>
+      <c r="C201" t="n">
+        <v>66710</v>
+      </c>
+      <c r="D201" t="n">
+        <v>73740</v>
+      </c>
+      <c r="E201" t="n">
+        <v>66040</v>
+      </c>
+      <c r="F201" t="n">
+        <v>73140</v>
+      </c>
+      <c r="G201" t="n">
+        <v>246780.30294362</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" t="s">
+        <v>407</v>
+      </c>
+      <c r="B202" t="s">
+        <v>408</v>
+      </c>
+      <c r="C202" t="n">
+        <v>73140</v>
+      </c>
+      <c r="D202" t="n">
+        <v>74840</v>
+      </c>
+      <c r="E202" t="n">
+        <v>68900</v>
+      </c>
+      <c r="F202" t="n">
+        <v>72320</v>
+      </c>
+      <c r="G202" t="n">
+        <v>192482.27485318</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>409</v>
+      </c>
+      <c r="B203" t="s">
+        <v>410</v>
+      </c>
+      <c r="C203" t="n">
+        <v>72160</v>
+      </c>
+      <c r="D203" t="n">
+        <v>74490</v>
+      </c>
+      <c r="E203" t="n">
+        <v>69940</v>
+      </c>
+      <c r="F203" t="n">
+        <v>70200</v>
+      </c>
+      <c r="G203" t="n">
+        <v>164227.34224441</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>411</v>
+      </c>
+      <c r="B204" t="s">
+        <v>412</v>
+      </c>
+      <c r="C204" t="n">
+        <v>70210</v>
+      </c>
+      <c r="D204" t="n">
+        <v>77800</v>
+      </c>
+      <c r="E204" t="n">
+        <v>70100</v>
+      </c>
+      <c r="F204" t="n">
+        <v>77160</v>
+      </c>
+      <c r="G204" t="n">
+        <v>357802.64311484</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>413</v>
+      </c>
+      <c r="B205" t="s">
+        <v>414</v>
+      </c>
+      <c r="C205" t="n">
+        <v>77160</v>
+      </c>
+      <c r="D205" t="n">
+        <v>80580</v>
+      </c>
+      <c r="E205" t="n">
+        <v>73800</v>
+      </c>
+      <c r="F205" t="n">
+        <v>80020</v>
+      </c>
+      <c r="G205" t="n">
+        <v>376515.05533927</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>415</v>
+      </c>
+      <c r="B206" t="s">
+        <v>416</v>
+      </c>
+      <c r="C206" t="n">
+        <v>80020</v>
+      </c>
+      <c r="D206" t="n">
+        <v>86080</v>
+      </c>
+      <c r="E206" t="n">
+        <v>77000</v>
+      </c>
+      <c r="F206" t="n">
+        <v>84960</v>
+      </c>
+      <c r="G206" t="n">
+        <v>315095.53322705</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" t="s">
+        <v>417</v>
+      </c>
+      <c r="B207" t="s">
+        <v>418</v>
+      </c>
+      <c r="C207" t="n">
+        <v>84960</v>
+      </c>
+      <c r="D207" t="n">
+        <v>86480</v>
+      </c>
+      <c r="E207" t="n">
+        <v>76000</v>
+      </c>
+      <c r="F207" t="n">
+        <v>81470</v>
+      </c>
+      <c r="G207" t="n">
+        <v>239794.3420282</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" t="s">
+        <v>419</v>
+      </c>
+      <c r="B208" t="s">
+        <v>420</v>
+      </c>
+      <c r="C208" t="n">
+        <v>81300</v>
+      </c>
+      <c r="D208" t="n">
+        <v>83330</v>
+      </c>
+      <c r="E208" t="n">
+        <v>79010</v>
+      </c>
+      <c r="F208" t="n">
+        <v>80300</v>
+      </c>
+      <c r="G208" t="n">
+        <v>106980.99045189</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" t="s">
+        <v>421</v>
+      </c>
+      <c r="B209" t="s">
+        <v>422</v>
+      </c>
+      <c r="C209" t="n">
+        <v>80240</v>
+      </c>
+      <c r="D209" t="n">
+        <v>86180</v>
+      </c>
+      <c r="E209" t="n">
+        <v>80000</v>
+      </c>
+      <c r="F209" t="n">
+        <v>83320</v>
+      </c>
+      <c r="G209" t="n">
+        <v>256610.60127782</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" t="s">
+        <v>423</v>
+      </c>
+      <c r="B210" t="s">
+        <v>424</v>
+      </c>
+      <c r="C210" t="n">
+        <v>83320</v>
+      </c>
+      <c r="D210" t="n">
+        <v>92200</v>
+      </c>
+      <c r="E210" t="n">
+        <v>83000</v>
+      </c>
+      <c r="F210" t="n">
+        <v>89400</v>
+      </c>
+      <c r="G210" t="n">
+        <v>296786.47020359</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
+        <v>425</v>
+      </c>
+      <c r="B211" t="s">
+        <v>426</v>
+      </c>
+      <c r="C211" t="n">
+        <v>89500</v>
+      </c>
+      <c r="D211" t="n">
+        <v>91180</v>
+      </c>
+      <c r="E211" t="n">
+        <v>76000</v>
+      </c>
+      <c r="F211" t="n">
+        <v>79000</v>
+      </c>
+      <c r="G211" t="n">
+        <v>313428.96866857</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>427</v>
+      </c>
+      <c r="B212" t="s">
+        <v>428</v>
+      </c>
+      <c r="C212" t="n">
+        <v>79000</v>
+      </c>
+      <c r="D212" t="n">
+        <v>84490</v>
+      </c>
+      <c r="E212" t="n">
+        <v>76250</v>
+      </c>
+      <c r="F212" t="n">
+        <v>83850</v>
+      </c>
+      <c r="G212" t="n">
+        <v>185117.69983663</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>429</v>
+      </c>
+      <c r="B213" t="s">
+        <v>430</v>
+      </c>
+      <c r="C213" t="n">
+        <v>83890</v>
+      </c>
+      <c r="D213" t="n">
+        <v>84230</v>
+      </c>
+      <c r="E213" t="n">
+        <v>79360</v>
+      </c>
+      <c r="F213" t="n">
+        <v>79600</v>
+      </c>
+      <c r="G213" t="n">
+        <v>157504.34031698</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>431</v>
+      </c>
+      <c r="B214" t="s">
+        <v>432</v>
+      </c>
+      <c r="C214" t="n">
+        <v>79600</v>
+      </c>
+      <c r="D214" t="n">
+        <v>84370</v>
+      </c>
+      <c r="E214" t="n">
+        <v>79200</v>
+      </c>
+      <c r="F214" t="n">
+        <v>82540</v>
+      </c>
+      <c r="G214" t="n">
+        <v>171190.98411341</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>433</v>
+      </c>
+      <c r="B215" t="s">
+        <v>434</v>
+      </c>
+      <c r="C215" t="n">
+        <v>82550</v>
+      </c>
+      <c r="D215" t="n">
+        <v>101050</v>
+      </c>
+      <c r="E215" t="n">
+        <v>81490</v>
+      </c>
+      <c r="F215" t="n">
+        <v>98210</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1324691.15258143</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" t="s">
+        <v>435</v>
+      </c>
+      <c r="B216" t="s">
+        <v>436</v>
+      </c>
+      <c r="C216" t="n">
+        <v>98220</v>
+      </c>
+      <c r="D216" t="n">
+        <v>105100</v>
+      </c>
+      <c r="E216" t="n">
+        <v>89800</v>
+      </c>
+      <c r="F216" t="n">
+        <v>92050</v>
+      </c>
+      <c r="G216" t="n">
+        <v>961449.47290069</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" t="s">
+        <v>437</v>
+      </c>
+      <c r="B217" t="s">
+        <v>438</v>
+      </c>
+      <c r="C217" t="n">
+        <v>92200</v>
+      </c>
+      <c r="D217" t="n">
+        <v>92640</v>
+      </c>
+      <c r="E217" t="n">
+        <v>86550</v>
+      </c>
+      <c r="F217" t="n">
+        <v>91800</v>
+      </c>
+      <c r="G217" t="n">
+        <v>213466.25236192</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" t="s">
+        <v>439</v>
+      </c>
+      <c r="B218" t="s">
+        <v>440</v>
+      </c>
+      <c r="C218" t="n">
+        <v>91800</v>
+      </c>
+      <c r="D218" t="n">
+        <v>93330</v>
+      </c>
+      <c r="E218" t="n">
+        <v>89330</v>
+      </c>
+      <c r="F218" t="n">
+        <v>92570</v>
+      </c>
+      <c r="G218" t="n">
+        <v>144951.04397125</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" t="s">
+        <v>441</v>
+      </c>
+      <c r="B219" t="s">
+        <v>442</v>
+      </c>
+      <c r="C219" t="n">
+        <v>92570</v>
+      </c>
+      <c r="D219" t="n">
+        <v>98000</v>
+      </c>
+      <c r="E219" t="n">
+        <v>90990</v>
+      </c>
+      <c r="F219" t="n">
+        <v>95940</v>
+      </c>
+      <c r="G219" t="n">
+        <v>265639.28276722</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>443</v>
+      </c>
+      <c r="B220" t="s">
+        <v>444</v>
+      </c>
+      <c r="C220" t="n">
+        <v>95930</v>
+      </c>
+      <c r="D220" t="n">
+        <v>96130</v>
+      </c>
+      <c r="E220" t="n">
+        <v>90300</v>
+      </c>
+      <c r="F220" t="n">
+        <v>92450</v>
+      </c>
+      <c r="G220" t="n">
+        <v>127994.35359589</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
+        <v>445</v>
+      </c>
+      <c r="B221" t="s">
+        <v>446</v>
+      </c>
+      <c r="C221" t="n">
+        <v>92260</v>
+      </c>
+      <c r="D221" t="n">
+        <v>93990</v>
+      </c>
+      <c r="E221" t="n">
+        <v>92030</v>
+      </c>
+      <c r="F221" t="n">
+        <v>92540</v>
+      </c>
+      <c r="G221" t="n">
+        <v>91117.33371098</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" t="s">
+        <v>447</v>
+      </c>
+      <c r="B222" t="s">
+        <v>448</v>
+      </c>
+      <c r="C222" t="n">
+        <v>92540</v>
+      </c>
+      <c r="D222" t="n">
+        <v>97420</v>
+      </c>
+      <c r="E222" t="n">
+        <v>89050</v>
+      </c>
+      <c r="F222" t="n">
+        <v>92390</v>
+      </c>
+      <c r="G222" t="n">
+        <v>267538.93986723</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" t="s">
+        <v>449</v>
+      </c>
+      <c r="B223" t="s">
+        <v>450</v>
+      </c>
+      <c r="C223" t="n">
+        <v>92390</v>
+      </c>
+      <c r="D223" t="n">
+        <v>92690</v>
+      </c>
+      <c r="E223" t="n">
+        <v>84660</v>
+      </c>
+      <c r="F223" t="n">
+        <v>88220</v>
+      </c>
+      <c r="G223" t="n">
+        <v>169887.86576593</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>451</v>
+      </c>
+      <c r="B224" t="s">
+        <v>452</v>
+      </c>
+      <c r="C224" t="n">
+        <v>88220</v>
+      </c>
+      <c r="D224" t="n">
+        <v>89800</v>
+      </c>
+      <c r="E224" t="n">
+        <v>84100</v>
+      </c>
+      <c r="F224" t="n">
+        <v>85600</v>
+      </c>
+      <c r="G224" t="n">
+        <v>103893.25581137</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" t="s">
+        <v>453</v>
+      </c>
+      <c r="B225" t="s">
+        <v>454</v>
+      </c>
+      <c r="C225" t="n">
+        <v>85610</v>
+      </c>
+      <c r="D225" t="n">
+        <v>85800</v>
+      </c>
+      <c r="E225" t="n">
+        <v>79860</v>
+      </c>
+      <c r="F225" t="n">
+        <v>85390</v>
+      </c>
+      <c r="G225" t="n">
+        <v>107744.51821273</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" t="s">
+        <v>455</v>
+      </c>
+      <c r="B226" t="s">
+        <v>456</v>
+      </c>
+      <c r="C226" t="n">
+        <v>84820</v>
+      </c>
+      <c r="D226" t="n">
+        <v>85470</v>
+      </c>
+      <c r="E226" t="n">
+        <v>76580</v>
+      </c>
+      <c r="F226" t="n">
+        <v>76990</v>
+      </c>
+      <c r="G226" t="n">
+        <v>84892.64990058</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" t="s">
+        <v>457</v>
+      </c>
+      <c r="B227" t="s">
+        <v>458</v>
+      </c>
+      <c r="C227" t="n">
+        <v>76990</v>
+      </c>
+      <c r="D227" t="n">
+        <v>78100</v>
+      </c>
+      <c r="E227" t="n">
+        <v>62000</v>
+      </c>
+      <c r="F227" t="n">
+        <v>69450</v>
+      </c>
+      <c r="G227" t="n">
+        <v>221871.29311404</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" t="s">
+        <v>459</v>
+      </c>
+      <c r="B228" t="s">
+        <v>460</v>
+      </c>
+      <c r="C228" t="n">
+        <v>69450</v>
+      </c>
+      <c r="D228" t="n">
+        <v>75050</v>
+      </c>
+      <c r="E228" t="n">
+        <v>64610</v>
+      </c>
+      <c r="F228" t="n">
+        <v>72260</v>
+      </c>
+      <c r="G228" t="n">
+        <v>98091.72769558</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" t="s">
+        <v>461</v>
+      </c>
+      <c r="B229" t="s">
+        <v>462</v>
+      </c>
+      <c r="C229" t="n">
+        <v>72270</v>
+      </c>
+      <c r="D229" t="n">
+        <v>77940</v>
+      </c>
+      <c r="E229" t="n">
+        <v>70000</v>
+      </c>
+      <c r="F229" t="n">
+        <v>76110</v>
+      </c>
+      <c r="G229" t="n">
+        <v>68284.94093286</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" t="s">
+        <v>463</v>
+      </c>
+      <c r="B230" t="s">
+        <v>464</v>
+      </c>
+      <c r="C230" t="n">
+        <v>76100</v>
+      </c>
+      <c r="D230" t="n">
+        <v>77940</v>
+      </c>
+      <c r="E230" t="n">
+        <v>70990</v>
+      </c>
+      <c r="F230" t="n">
+        <v>74930</v>
+      </c>
+      <c r="G230" t="n">
+        <v>112178.2774609</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" t="s">
+        <v>465</v>
+      </c>
+      <c r="B231" t="s">
+        <v>466</v>
+      </c>
+      <c r="C231" t="n">
+        <v>74930</v>
+      </c>
+      <c r="D231" t="n">
+        <v>77100</v>
+      </c>
+      <c r="E231" t="n">
+        <v>69920</v>
+      </c>
+      <c r="F231" t="n">
+        <v>70580</v>
+      </c>
+      <c r="G231" t="n">
+        <v>73242.15204507</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" t="s">
+        <v>467</v>
+      </c>
+      <c r="B232" t="s">
+        <v>468</v>
+      </c>
+      <c r="C232" t="n">
+        <v>70600</v>
+      </c>
+      <c r="D232" t="n">
+        <v>71550</v>
+      </c>
+      <c r="E232" t="n">
+        <v>66120</v>
+      </c>
+      <c r="F232" t="n">
+        <v>68900</v>
+      </c>
+      <c r="G232" t="n">
+        <v>60906.61573045</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" t="s">
+        <v>469</v>
+      </c>
+      <c r="B233" t="s">
+        <v>470</v>
+      </c>
+      <c r="C233" t="n">
+        <v>68940</v>
+      </c>
+      <c r="D233" t="n">
+        <v>70500</v>
+      </c>
+      <c r="E233" t="n">
+        <v>64020</v>
+      </c>
+      <c r="F233" t="n">
+        <v>65750</v>
+      </c>
+      <c r="G233" t="n">
+        <v>64269.51707621</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" t="s">
+        <v>471</v>
+      </c>
+      <c r="B234" t="s">
+        <v>472</v>
+      </c>
+      <c r="C234" t="n">
+        <v>65110</v>
+      </c>
+      <c r="D234" t="n">
+        <v>68480</v>
+      </c>
+      <c r="E234" t="n">
+        <v>63400</v>
+      </c>
+      <c r="F234" t="n">
+        <v>66330</v>
+      </c>
+      <c r="G234" t="n">
+        <v>45291.53908587</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" t="s">
+        <v>473</v>
+      </c>
+      <c r="B235" t="s">
+        <v>474</v>
+      </c>
+      <c r="C235" t="n">
+        <v>66120</v>
+      </c>
+      <c r="D235" t="n">
+        <v>67170</v>
+      </c>
+      <c r="E235" t="n">
+        <v>64650</v>
+      </c>
+      <c r="F235" t="n">
+        <v>65080</v>
+      </c>
+      <c r="G235" t="n">
+        <v>33135.27612108</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" t="s">
+        <v>475</v>
+      </c>
+      <c r="B236" t="s">
+        <v>476</v>
+      </c>
+      <c r="C236" t="n">
+        <v>65120</v>
+      </c>
+      <c r="D236" t="n">
+        <v>70300</v>
+      </c>
+      <c r="E236" t="n">
+        <v>64650</v>
+      </c>
+      <c r="F236" t="n">
+        <v>69760</v>
+      </c>
+      <c r="G236" t="n">
+        <v>37662.37052327</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>477</v>
+      </c>
+      <c r="B237" t="s">
+        <v>478</v>
+      </c>
+      <c r="C237" t="n">
+        <v>69750</v>
+      </c>
+      <c r="D237" t="n">
+        <v>73150</v>
+      </c>
+      <c r="E237" t="n">
+        <v>67510</v>
+      </c>
+      <c r="F237" t="n">
+        <v>69450</v>
+      </c>
+      <c r="G237" t="n">
+        <v>71441.75114481999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>479</v>
+      </c>
+      <c r="B238" t="s">
+        <v>480</v>
+      </c>
+      <c r="C238" t="n">
+        <v>69450</v>
+      </c>
+      <c r="D238" t="n">
+        <v>69610</v>
+      </c>
+      <c r="E238" t="n">
+        <v>64020</v>
+      </c>
+      <c r="F238" t="n">
+        <v>64020</v>
+      </c>
+      <c r="G238" t="n">
+        <v>47142.84840489</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>481</v>
+      </c>
+      <c r="B239" t="s">
+        <v>482</v>
+      </c>
+      <c r="C239" t="n">
+        <v>64030</v>
+      </c>
+      <c r="D239" t="n">
+        <v>64810</v>
+      </c>
+      <c r="E239" t="n">
+        <v>58100</v>
+      </c>
+      <c r="F239" t="n">
+        <v>58840</v>
+      </c>
+      <c r="G239" t="n">
+        <v>70187.84780611</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" t="s">
+        <v>483</v>
+      </c>
+      <c r="B240" t="s">
+        <v>484</v>
+      </c>
+      <c r="C240" t="n">
+        <v>58850</v>
+      </c>
+      <c r="D240" t="n">
+        <v>62500</v>
+      </c>
+      <c r="E240" t="n">
+        <v>55000</v>
+      </c>
+      <c r="F240" t="n">
+        <v>60970</v>
+      </c>
+      <c r="G240" t="n">
+        <v>68640.69806235</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" t="s">
+        <v>485</v>
+      </c>
+      <c r="B241" t="s">
+        <v>486</v>
+      </c>
+      <c r="C241" t="n">
+        <v>60970</v>
+      </c>
+      <c r="D241" t="n">
+        <v>62510</v>
+      </c>
+      <c r="E241" t="n">
+        <v>57500</v>
+      </c>
+      <c r="F241" t="n">
+        <v>58580</v>
+      </c>
+      <c r="G241" t="n">
+        <v>42089.09321246</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" t="s">
+        <v>487</v>
+      </c>
+      <c r="B242" t="s">
+        <v>488</v>
+      </c>
+      <c r="C242" t="n">
+        <v>58580</v>
+      </c>
+      <c r="D242" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E242" t="n">
+        <v>57500</v>
+      </c>
+      <c r="F242" t="n">
+        <v>58160</v>
+      </c>
+      <c r="G242" t="n">
+        <v>20102.71361951</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" t="s">
+        <v>489</v>
+      </c>
+      <c r="B243" t="s">
+        <v>490</v>
+      </c>
+      <c r="C243" t="n">
+        <v>57910</v>
+      </c>
+      <c r="D243" t="n">
+        <v>58980</v>
+      </c>
+      <c r="E243" t="n">
+        <v>56880</v>
+      </c>
+      <c r="F243" t="n">
+        <v>58760</v>
+      </c>
+      <c r="G243" t="n">
+        <v>22798.70737744</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" t="s">
+        <v>491</v>
+      </c>
+      <c r="B244" t="s">
+        <v>492</v>
+      </c>
+      <c r="C244" t="n">
+        <v>58720</v>
+      </c>
+      <c r="D244" t="n">
+        <v>58800</v>
+      </c>
+      <c r="E244" t="n">
+        <v>52590</v>
+      </c>
+      <c r="F244" t="n">
+        <v>53300</v>
+      </c>
+      <c r="G244" t="n">
+        <v>50804.53316396</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" t="s">
+        <v>493</v>
+      </c>
+      <c r="B245" t="s">
+        <v>494</v>
+      </c>
+      <c r="C245" t="n">
+        <v>53160</v>
+      </c>
+      <c r="D245" t="n">
+        <v>59370</v>
+      </c>
+      <c r="E245" t="n">
+        <v>52890</v>
+      </c>
+      <c r="F245" t="n">
+        <v>57870</v>
+      </c>
+      <c r="G245" t="n">
+        <v>46694.31441029</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" t="s">
+        <v>495</v>
+      </c>
+      <c r="B246" t="s">
+        <v>496</v>
+      </c>
+      <c r="C246" t="n">
+        <v>57950</v>
+      </c>
+      <c r="D246" t="n">
+        <v>59680</v>
+      </c>
+      <c r="E246" t="n">
+        <v>55850</v>
+      </c>
+      <c r="F246" t="n">
+        <v>57100</v>
+      </c>
+      <c r="G246" t="n">
+        <v>41734.03400122</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" t="s">
+        <v>497</v>
+      </c>
+      <c r="B247" t="s">
+        <v>498</v>
+      </c>
+      <c r="C247" t="n">
+        <v>57100</v>
+      </c>
+      <c r="D247" t="n">
+        <v>59500</v>
+      </c>
+      <c r="E247" t="n">
+        <v>56250</v>
+      </c>
+      <c r="F247" t="n">
+        <v>58560</v>
+      </c>
+      <c r="G247" t="n">
+        <v>29300.60534825</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" t="s">
+        <v>499</v>
+      </c>
+      <c r="B248" t="s">
+        <v>500</v>
+      </c>
+      <c r="C248" t="n">
+        <v>58650</v>
+      </c>
+      <c r="D248" t="n">
+        <v>62200</v>
+      </c>
+      <c r="E248" t="n">
+        <v>58280</v>
+      </c>
+      <c r="F248" t="n">
+        <v>61310</v>
+      </c>
+      <c r="G248" t="n">
+        <v>77977.62138401</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" t="s">
+        <v>501</v>
+      </c>
+      <c r="B249" t="s">
+        <v>502</v>
+      </c>
+      <c r="C249" t="n">
+        <v>61300</v>
+      </c>
+      <c r="D249" t="n">
+        <v>62910</v>
+      </c>
+      <c r="E249" t="n">
+        <v>60200</v>
+      </c>
+      <c r="F249" t="n">
+        <v>62120</v>
+      </c>
+      <c r="G249" t="n">
+        <v>60480.63782042</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" t="s">
+        <v>503</v>
+      </c>
+      <c r="B250" t="s">
+        <v>504</v>
+      </c>
+      <c r="C250" t="n">
+        <v>62120</v>
+      </c>
+      <c r="D250" t="n">
+        <v>63320</v>
+      </c>
+      <c r="E250" t="n">
+        <v>60970</v>
+      </c>
+      <c r="F250" t="n">
+        <v>61950</v>
+      </c>
+      <c r="G250" t="n">
+        <v>53112.41488964</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" t="s">
+        <v>505</v>
+      </c>
+      <c r="B251" t="s">
+        <v>506</v>
+      </c>
+      <c r="C251" t="n">
+        <v>61950</v>
+      </c>
+      <c r="D251" t="n">
+        <v>62420</v>
+      </c>
+      <c r="E251" t="n">
+        <v>57810</v>
+      </c>
+      <c r="F251" t="n">
+        <v>58700</v>
+      </c>
+      <c r="G251" t="n">
+        <v>58887.65819769</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" t="s">
+        <v>507</v>
+      </c>
+      <c r="B252" t="s">
+        <v>508</v>
+      </c>
+      <c r="C252" t="n">
+        <v>58690</v>
+      </c>
+      <c r="D252" t="n">
+        <v>60480</v>
+      </c>
+      <c r="E252" t="n">
+        <v>57170</v>
+      </c>
+      <c r="F252" t="n">
+        <v>59670</v>
+      </c>
+      <c r="G252" t="n">
+        <v>41379.80460037</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" t="s">
+        <v>509</v>
+      </c>
+      <c r="B253" t="s">
+        <v>510</v>
+      </c>
+      <c r="C253" t="n">
+        <v>59530</v>
+      </c>
+      <c r="D253" t="n">
+        <v>60400</v>
+      </c>
+      <c r="E253" t="n">
+        <v>57810</v>
+      </c>
+      <c r="F253" t="n">
+        <v>58830</v>
+      </c>
+      <c r="G253" t="n">
+        <v>24036.6952921</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" t="s">
+        <v>511</v>
+      </c>
+      <c r="B254" t="s">
+        <v>512</v>
+      </c>
+      <c r="C254" t="n">
+        <v>58900</v>
+      </c>
+      <c r="D254" t="n">
+        <v>59780</v>
+      </c>
+      <c r="E254" t="n">
+        <v>57800</v>
+      </c>
+      <c r="F254" t="n">
+        <v>58060</v>
+      </c>
+      <c r="G254" t="n">
+        <v>22762.82545229</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" t="s">
+        <v>513</v>
+      </c>
+      <c r="B255" t="s">
+        <v>514</v>
+      </c>
+      <c r="C255" t="n">
+        <v>58070</v>
+      </c>
+      <c r="D255" t="n">
+        <v>58660</v>
+      </c>
+      <c r="E255" t="n">
+        <v>56830</v>
+      </c>
+      <c r="F255" t="n">
+        <v>57350</v>
+      </c>
+      <c r="G255" t="n">
+        <v>22538.240369</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" t="s">
+        <v>515</v>
+      </c>
+      <c r="B256" t="s">
+        <v>516</v>
+      </c>
+      <c r="C256" t="n">
+        <v>57350</v>
+      </c>
+      <c r="D256" t="n">
+        <v>58300</v>
+      </c>
+      <c r="E256" t="n">
+        <v>55910</v>
+      </c>
+      <c r="F256" t="n">
+        <v>55910</v>
+      </c>
+      <c r="G256" t="n">
+        <v>19420.93893757</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" t="s">
+        <v>517</v>
+      </c>
+      <c r="B257" t="s">
+        <v>518</v>
+      </c>
+      <c r="C257" t="n">
+        <v>55930</v>
+      </c>
+      <c r="D257" t="n">
+        <v>55990</v>
+      </c>
+      <c r="E257" t="n">
+        <v>48800</v>
+      </c>
+      <c r="F257" t="n">
+        <v>50740</v>
+      </c>
+      <c r="G257" t="n">
+        <v>79171.00991044</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" t="s">
+        <v>519</v>
+      </c>
+      <c r="B258" t="s">
+        <v>520</v>
+      </c>
+      <c r="C258" t="n">
+        <v>50730</v>
+      </c>
+      <c r="D258" t="n">
+        <v>51000</v>
+      </c>
+      <c r="E258" t="n">
+        <v>47320</v>
+      </c>
+      <c r="F258" t="n">
+        <v>50500</v>
+      </c>
+      <c r="G258" t="n">
+        <v>47170.75850543</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" t="s">
+        <v>521</v>
+      </c>
+      <c r="B259" t="s">
+        <v>522</v>
+      </c>
+      <c r="C259" t="n">
+        <v>50500</v>
+      </c>
+      <c r="D259" t="n">
+        <v>52370</v>
+      </c>
+      <c r="E259" t="n">
+        <v>45360</v>
+      </c>
+      <c r="F259" t="n">
+        <v>46460</v>
+      </c>
+      <c r="G259" t="n">
+        <v>112260.00810553</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" t="s">
+        <v>523</v>
+      </c>
+      <c r="B260" t="s">
+        <v>524</v>
+      </c>
+      <c r="C260" t="n">
+        <v>46460</v>
+      </c>
+      <c r="D260" t="n">
+        <v>46750</v>
+      </c>
+      <c r="E260" t="n">
+        <v>40300</v>
+      </c>
+      <c r="F260" t="n">
+        <v>42550</v>
+      </c>
+      <c r="G260" t="n">
+        <v>65517.03151884</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" t="s">
+        <v>525</v>
+      </c>
+      <c r="B261" t="s">
+        <v>526</v>
+      </c>
+      <c r="C261" t="n">
+        <v>42550</v>
+      </c>
+      <c r="D261" t="n">
+        <v>46410</v>
+      </c>
+      <c r="E261" t="n">
+        <v>41800</v>
+      </c>
+      <c r="F261" t="n">
+        <v>45220</v>
+      </c>
+      <c r="G261" t="n">
+        <v>63812.56620231</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" t="s">
+        <v>527</v>
+      </c>
+      <c r="B262" t="s">
+        <v>528</v>
+      </c>
+      <c r="C262" t="n">
+        <v>45220</v>
+      </c>
+      <c r="D262" t="n">
+        <v>45250</v>
+      </c>
+      <c r="E262" t="n">
+        <v>42510</v>
+      </c>
+      <c r="F262" t="n">
+        <v>42580</v>
+      </c>
+      <c r="G262" t="n">
+        <v>34132.19395795</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" t="s">
+        <v>529</v>
+      </c>
+      <c r="B263" t="s">
+        <v>530</v>
+      </c>
+      <c r="C263" t="n">
+        <v>42990</v>
+      </c>
+      <c r="D263" t="n">
+        <v>43180</v>
+      </c>
+      <c r="E263" t="n">
+        <v>40900</v>
+      </c>
+      <c r="F263" t="n">
+        <v>42550</v>
+      </c>
+      <c r="G263" t="n">
+        <v>27405.67254469</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" t="s">
+        <v>531</v>
+      </c>
+      <c r="B264" t="s">
+        <v>532</v>
+      </c>
+      <c r="C264" t="n">
+        <v>42560</v>
+      </c>
+      <c r="D264" t="n">
+        <v>45000</v>
+      </c>
+      <c r="E264" t="n">
+        <v>42000</v>
+      </c>
+      <c r="F264" t="n">
+        <v>43380</v>
+      </c>
+      <c r="G264" t="n">
+        <v>18020.47822969</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" t="s">
+        <v>533</v>
+      </c>
+      <c r="B265" t="s">
+        <v>534</v>
+      </c>
+      <c r="C265" t="n">
+        <v>43380</v>
+      </c>
+      <c r="D265" t="n">
+        <v>45000</v>
+      </c>
+      <c r="E265" t="n">
+        <v>41120</v>
+      </c>
+      <c r="F265" t="n">
+        <v>43840</v>
+      </c>
+      <c r="G265" t="n">
+        <v>37431.87170873</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" t="s">
+        <v>535</v>
+      </c>
+      <c r="B266" t="s">
+        <v>536</v>
+      </c>
+      <c r="C266" t="n">
+        <v>44050</v>
+      </c>
+      <c r="D266" t="n">
+        <v>46340</v>
+      </c>
+      <c r="E266" t="n">
+        <v>43460</v>
+      </c>
+      <c r="F266" t="n">
+        <v>44650</v>
+      </c>
+      <c r="G266" t="n">
+        <v>28805.14361879</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" t="s">
+        <v>537</v>
+      </c>
+      <c r="B267" t="s">
+        <v>538</v>
+      </c>
+      <c r="C267" t="n">
+        <v>44650</v>
+      </c>
+      <c r="D267" t="n">
+        <v>45500</v>
+      </c>
+      <c r="E267" t="n">
+        <v>40820</v>
+      </c>
+      <c r="F267" t="n">
+        <v>43300</v>
+      </c>
+      <c r="G267" t="n">
+        <v>47669.01688388</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" t="s">
+        <v>539</v>
+      </c>
+      <c r="B268" t="s">
+        <v>540</v>
+      </c>
+      <c r="C268" t="n">
+        <v>43590</v>
+      </c>
+      <c r="D268" t="n">
+        <v>44500</v>
+      </c>
+      <c r="E268" t="n">
+        <v>41600</v>
+      </c>
+      <c r="F268" t="n">
+        <v>42250</v>
+      </c>
+      <c r="G268" t="n">
+        <v>21369.25966701</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" t="s">
+        <v>541</v>
+      </c>
+      <c r="B269" t="s">
+        <v>542</v>
+      </c>
+      <c r="C269" t="n">
+        <v>42250</v>
+      </c>
+      <c r="D269" t="n">
+        <v>42390</v>
+      </c>
+      <c r="E269" t="n">
+        <v>37080</v>
+      </c>
+      <c r="F269" t="n">
+        <v>38000</v>
+      </c>
+      <c r="G269" t="n">
+        <v>50211.22278128</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" t="s">
+        <v>543</v>
+      </c>
+      <c r="B270" t="s">
+        <v>544</v>
+      </c>
+      <c r="C270" t="n">
+        <v>38000</v>
+      </c>
+      <c r="D270" t="n">
+        <v>39390</v>
+      </c>
+      <c r="E270" t="n">
+        <v>37110</v>
+      </c>
+      <c r="F270" t="n">
+        <v>38610</v>
+      </c>
+      <c r="G270" t="n">
+        <v>29150.20717509</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" t="s">
+        <v>545</v>
+      </c>
+      <c r="B271" t="s">
+        <v>546</v>
+      </c>
+      <c r="C271" t="n">
+        <v>38660</v>
+      </c>
+      <c r="D271" t="n">
+        <v>38700</v>
+      </c>
+      <c r="E271" t="n">
+        <v>33010</v>
+      </c>
+      <c r="F271" t="n">
+        <v>35300</v>
+      </c>
+      <c r="G271" t="n">
+        <v>51893.36552993</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" t="s">
+        <v>547</v>
+      </c>
+      <c r="B272" t="s">
+        <v>548</v>
+      </c>
+      <c r="C272" t="n">
+        <v>35300</v>
+      </c>
+      <c r="D272" t="n">
+        <v>36930</v>
+      </c>
+      <c r="E272" t="n">
+        <v>34410</v>
+      </c>
+      <c r="F272" t="n">
+        <v>35470</v>
+      </c>
+      <c r="G272" t="n">
+        <v>32129.40556839</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" t="s">
+        <v>549</v>
+      </c>
+      <c r="B273" t="s">
+        <v>550</v>
+      </c>
+      <c r="C273" t="n">
+        <v>35430</v>
+      </c>
+      <c r="D273" t="n">
+        <v>36250</v>
+      </c>
+      <c r="E273" t="n">
+        <v>33780</v>
+      </c>
+      <c r="F273" t="n">
+        <v>34000</v>
+      </c>
+      <c r="G273" t="n">
+        <v>70189.40972561001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" t="s">
+        <v>551</v>
+      </c>
+      <c r="B274" t="s">
+        <v>552</v>
+      </c>
+      <c r="C274" t="n">
+        <v>33920</v>
+      </c>
+      <c r="D274" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E274" t="n">
+        <v>33340</v>
+      </c>
+      <c r="F274" t="n">
+        <v>34210</v>
+      </c>
+      <c r="G274" t="n">
+        <v>77432.97375287001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" t="s">
+        <v>553</v>
+      </c>
+      <c r="B275" t="s">
+        <v>554</v>
+      </c>
+      <c r="C275" t="n">
+        <v>34210</v>
+      </c>
+      <c r="D275" t="n">
+        <v>34750</v>
+      </c>
+      <c r="E275" t="n">
+        <v>31840</v>
+      </c>
+      <c r="F275" t="n">
+        <v>32220</v>
+      </c>
+      <c r="G275" t="n">
+        <v>40721.52443929</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" t="s">
+        <v>555</v>
+      </c>
+      <c r="B276" t="s">
+        <v>556</v>
+      </c>
+      <c r="C276" t="n">
+        <v>32220</v>
+      </c>
+      <c r="D276" t="n">
+        <v>34790</v>
+      </c>
+      <c r="E276" t="n">
+        <v>30700</v>
+      </c>
+      <c r="F276" t="n">
+        <v>33340</v>
+      </c>
+      <c r="G276" t="n">
+        <v>49100.3045286</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" t="s">
+        <v>557</v>
+      </c>
+      <c r="B277" t="s">
+        <v>558</v>
+      </c>
+      <c r="C277" t="n">
+        <v>33270</v>
+      </c>
+      <c r="D277" t="n">
+        <v>35970</v>
+      </c>
+      <c r="E277" t="n">
+        <v>33150</v>
+      </c>
+      <c r="F277" t="n">
+        <v>34640</v>
+      </c>
+      <c r="G277" t="n">
+        <v>64707.02993639</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" t="s">
+        <v>559</v>
+      </c>
+      <c r="B278" t="s">
+        <v>560</v>
+      </c>
+      <c r="C278" t="n">
+        <v>34640</v>
+      </c>
+      <c r="D278" t="n">
+        <v>35180</v>
+      </c>
+      <c r="E278" t="n">
+        <v>33320</v>
+      </c>
+      <c r="F278" t="n">
+        <v>35170</v>
+      </c>
+      <c r="G278" t="n">
+        <v>58070.26055263</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" t="s">
+        <v>561</v>
+      </c>
+      <c r="B279" t="s">
+        <v>562</v>
+      </c>
+      <c r="C279" t="n">
+        <v>35160</v>
+      </c>
+      <c r="D279" t="n">
+        <v>41700</v>
+      </c>
+      <c r="E279" t="n">
+        <v>34650</v>
+      </c>
+      <c r="F279" t="n">
+        <v>39820</v>
+      </c>
+      <c r="G279" t="n">
+        <v>266388.32047274</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" t="s">
+        <v>563</v>
+      </c>
+      <c r="B280" t="s">
+        <v>564</v>
+      </c>
+      <c r="C280" t="n">
+        <v>39830</v>
+      </c>
+      <c r="D280" t="n">
+        <v>42780</v>
+      </c>
+      <c r="E280" t="n">
+        <v>39380</v>
+      </c>
+      <c r="F280" t="n">
+        <v>40300</v>
+      </c>
+      <c r="G280" t="n">
+        <v>204877.00836722</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" t="s">
+        <v>565</v>
+      </c>
+      <c r="B281" t="s">
+        <v>566</v>
+      </c>
+      <c r="C281" t="n">
+        <v>40310</v>
+      </c>
+      <c r="D281" t="n">
+        <v>46900</v>
+      </c>
+      <c r="E281" t="n">
+        <v>38390</v>
+      </c>
+      <c r="F281" t="n">
+        <v>45020</v>
+      </c>
+      <c r="G281" t="n">
+        <v>814342.24379761</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" t="s">
+        <v>567</v>
+      </c>
+      <c r="B282" t="s">
+        <v>568</v>
+      </c>
+      <c r="C282" t="n">
+        <v>45030</v>
+      </c>
+      <c r="D282" t="n">
+        <v>48330</v>
+      </c>
+      <c r="E282" t="n">
+        <v>43820</v>
+      </c>
+      <c r="F282" t="n">
+        <v>45290</v>
+      </c>
+      <c r="G282" t="n">
+        <v>424017.88028417</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" t="s">
+        <v>569</v>
+      </c>
+      <c r="B283" t="s">
+        <v>570</v>
+      </c>
+      <c r="C283" t="n">
+        <v>45290</v>
+      </c>
+      <c r="D283" t="n">
+        <v>45660</v>
+      </c>
+      <c r="E283" t="n">
+        <v>41630</v>
+      </c>
+      <c r="F283" t="n">
+        <v>42500</v>
+      </c>
+      <c r="G283" t="n">
+        <v>251843.31339777</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" t="s">
+        <v>571</v>
+      </c>
+      <c r="B284" t="s">
+        <v>572</v>
+      </c>
+      <c r="C284" t="n">
+        <v>42500</v>
+      </c>
+      <c r="D284" t="n">
+        <v>43080</v>
+      </c>
+      <c r="E284" t="n">
+        <v>40710</v>
+      </c>
+      <c r="F284" t="n">
+        <v>42910</v>
+      </c>
+      <c r="G284" t="n">
+        <v>88595.55452165</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" t="s">
+        <v>573</v>
+      </c>
+      <c r="B285" t="s">
+        <v>574</v>
+      </c>
+      <c r="C285" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D285" t="n">
+        <v>45660</v>
+      </c>
+      <c r="E285" t="n">
+        <v>42820</v>
+      </c>
+      <c r="F285" t="n">
+        <v>43580</v>
+      </c>
+      <c r="G285" t="n">
+        <v>143086.62017945</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" t="s">
+        <v>575</v>
+      </c>
+      <c r="B286" t="s">
+        <v>576</v>
+      </c>
+      <c r="C286" t="n">
+        <v>43580</v>
+      </c>
+      <c r="D286" t="n">
+        <v>43880</v>
+      </c>
+      <c r="E286" t="n">
+        <v>40660</v>
+      </c>
+      <c r="F286" t="n">
+        <v>40970</v>
+      </c>
+      <c r="G286" t="n">
+        <v>51719.03796957</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" t="s">
+        <v>577</v>
+      </c>
+      <c r="B287" t="s">
+        <v>578</v>
+      </c>
+      <c r="C287" t="n">
+        <v>40700</v>
+      </c>
+      <c r="D287" t="n">
+        <v>41260</v>
+      </c>
+      <c r="E287" t="n">
+        <v>37210</v>
+      </c>
+      <c r="F287" t="n">
+        <v>37870</v>
+      </c>
+      <c r="G287" t="n">
+        <v>91403.95333947999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" t="s">
+        <v>579</v>
+      </c>
+      <c r="B288" t="s">
+        <v>580</v>
+      </c>
+      <c r="C288" t="n">
+        <v>37840</v>
+      </c>
+      <c r="D288" t="n">
+        <v>39500</v>
+      </c>
+      <c r="E288" t="n">
+        <v>36070</v>
+      </c>
+      <c r="F288" t="n">
+        <v>38460</v>
+      </c>
+      <c r="G288" t="n">
+        <v>58762.08751088</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" t="s">
+        <v>581</v>
+      </c>
+      <c r="B289" t="s">
+        <v>582</v>
+      </c>
+      <c r="C289" t="n">
+        <v>38460</v>
+      </c>
+      <c r="D289" t="n">
+        <v>38470</v>
+      </c>
+      <c r="E289" t="n">
+        <v>34720</v>
+      </c>
+      <c r="F289" t="n">
+        <v>36500</v>
+      </c>
+      <c r="G289" t="n">
+        <v>55690.95609235</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" t="s">
+        <v>583</v>
+      </c>
+      <c r="B290" t="s">
+        <v>584</v>
+      </c>
+      <c r="C290" t="n">
+        <v>36500</v>
+      </c>
+      <c r="D290" t="n">
+        <v>38700</v>
+      </c>
+      <c r="E290" t="n">
+        <v>36240</v>
+      </c>
+      <c r="F290" t="n">
+        <v>37500</v>
+      </c>
+      <c r="G290" t="n">
+        <v>37578.59086975</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" t="s">
+        <v>585</v>
+      </c>
+      <c r="B291" t="s">
+        <v>586</v>
+      </c>
+      <c r="C291" t="n">
+        <v>37500</v>
+      </c>
+      <c r="D291" t="n">
+        <v>37950</v>
+      </c>
+      <c r="E291" t="n">
+        <v>35940</v>
+      </c>
+      <c r="F291" t="n">
+        <v>36980</v>
+      </c>
+      <c r="G291" t="n">
+        <v>25565.51088204</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" t="s">
+        <v>587</v>
+      </c>
+      <c r="B292" t="s">
+        <v>588</v>
+      </c>
+      <c r="C292" t="n">
+        <v>36980</v>
+      </c>
+      <c r="D292" t="n">
+        <v>38410</v>
+      </c>
+      <c r="E292" t="n">
+        <v>36510</v>
+      </c>
+      <c r="F292" t="n">
+        <v>37750</v>
+      </c>
+      <c r="G292" t="n">
+        <v>25373.65037019</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" t="s">
+        <v>589</v>
+      </c>
+      <c r="B293" t="s">
+        <v>590</v>
+      </c>
+      <c r="C293" t="n">
+        <v>37730</v>
+      </c>
+      <c r="D293" t="n">
+        <v>40930</v>
+      </c>
+      <c r="E293" t="n">
+        <v>37200</v>
+      </c>
+      <c r="F293" t="n">
+        <v>40800</v>
+      </c>
+      <c r="G293" t="n">
+        <v>53073.73540651</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" t="s">
+        <v>591</v>
+      </c>
+      <c r="B294" t="s">
+        <v>592</v>
+      </c>
+      <c r="C294" t="n">
+        <v>40600</v>
+      </c>
+      <c r="D294" t="n">
+        <v>43860</v>
+      </c>
+      <c r="E294" t="n">
+        <v>39790</v>
+      </c>
+      <c r="F294" t="n">
+        <v>43110</v>
+      </c>
+      <c r="G294" t="n">
+        <v>58549.65008033</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" t="s">
+        <v>593</v>
+      </c>
+      <c r="B295" t="s">
+        <v>594</v>
+      </c>
+      <c r="C295" t="n">
+        <v>43120</v>
+      </c>
+      <c r="D295" t="n">
+        <v>45320</v>
+      </c>
+      <c r="E295" t="n">
+        <v>41300</v>
+      </c>
+      <c r="F295" t="n">
+        <v>42310</v>
+      </c>
+      <c r="G295" t="n">
+        <v>132765.81664451</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" t="s">
+        <v>595</v>
+      </c>
+      <c r="B296" t="s">
+        <v>596</v>
+      </c>
+      <c r="C296" t="n">
+        <v>42310</v>
+      </c>
+      <c r="D296" t="n">
+        <v>43030</v>
+      </c>
+      <c r="E296" t="n">
+        <v>40200</v>
+      </c>
+      <c r="F296" t="n">
+        <v>40710</v>
+      </c>
+      <c r="G296" t="n">
+        <v>53843.4736399</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" t="s">
+        <v>597</v>
+      </c>
+      <c r="B297" t="s">
+        <v>598</v>
+      </c>
+      <c r="C297" t="n">
+        <v>40650</v>
+      </c>
+      <c r="D297" t="n">
+        <v>40650</v>
+      </c>
+      <c r="E297" t="n">
+        <v>37500</v>
+      </c>
+      <c r="F297" t="n">
+        <v>37810</v>
+      </c>
+      <c r="G297" t="n">
+        <v>61799.23119689</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" t="s">
+        <v>599</v>
+      </c>
+      <c r="B298" t="s">
+        <v>600</v>
+      </c>
+      <c r="C298" t="n">
+        <v>37810</v>
+      </c>
+      <c r="D298" t="n">
+        <v>39620</v>
+      </c>
+      <c r="E298" t="n">
+        <v>36240</v>
+      </c>
+      <c r="F298" t="n">
+        <v>38610</v>
+      </c>
+      <c r="G298" t="n">
+        <v>29760.52693643</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" t="s">
+        <v>601</v>
+      </c>
+      <c r="B299" t="s">
+        <v>602</v>
+      </c>
+      <c r="C299" t="n">
+        <v>38600</v>
+      </c>
+      <c r="D299" t="n">
+        <v>39370</v>
+      </c>
+      <c r="E299" t="n">
+        <v>36820</v>
+      </c>
+      <c r="F299" t="n">
+        <v>37440</v>
+      </c>
+      <c r="G299" t="n">
+        <v>29650.95305435</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" t="s">
+        <v>603</v>
+      </c>
+      <c r="B300" t="s">
+        <v>604</v>
+      </c>
+      <c r="C300" t="n">
+        <v>37370</v>
+      </c>
+      <c r="D300" t="n">
+        <v>38920</v>
+      </c>
+      <c r="E300" t="n">
+        <v>36300</v>
+      </c>
+      <c r="F300" t="n">
+        <v>36490</v>
+      </c>
+      <c r="G300" t="n">
+        <v>67504.30256603</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" t="s">
+        <v>605</v>
+      </c>
+      <c r="B301" t="s">
+        <v>606</v>
+      </c>
+      <c r="C301" t="n">
+        <v>36490</v>
+      </c>
+      <c r="D301" t="n">
+        <v>40260</v>
+      </c>
+      <c r="E301" t="n">
+        <v>35760</v>
+      </c>
+      <c r="F301" t="n">
+        <v>38190</v>
+      </c>
+      <c r="G301" t="n">
+        <v>92511.85314276</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" t="s">
+        <v>607</v>
+      </c>
+      <c r="B302" t="s">
+        <v>608</v>
+      </c>
+      <c r="C302" t="n">
+        <v>38190</v>
+      </c>
+      <c r="D302" t="n">
+        <v>39890</v>
+      </c>
+      <c r="E302" t="n">
+        <v>37500</v>
+      </c>
+      <c r="F302" t="n">
+        <v>38220</v>
+      </c>
+      <c r="G302" t="n">
+        <v>57406.76822931</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" t="s">
+        <v>609</v>
+      </c>
+      <c r="B303" t="s">
+        <v>610</v>
+      </c>
+      <c r="C303" t="n">
+        <v>38230</v>
+      </c>
+      <c r="D303" t="n">
+        <v>39800</v>
+      </c>
+      <c r="E303" t="n">
+        <v>36770</v>
+      </c>
+      <c r="F303" t="n">
+        <v>37220</v>
+      </c>
+      <c r="G303" t="n">
+        <v>40496.09887176</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" t="s">
+        <v>611</v>
+      </c>
+      <c r="B304" t="s">
+        <v>612</v>
+      </c>
+      <c r="C304" t="n">
+        <v>37570</v>
+      </c>
+      <c r="D304" t="n">
+        <v>37900</v>
+      </c>
+      <c r="E304" t="n">
+        <v>36180</v>
+      </c>
+      <c r="F304" t="n">
+        <v>37210</v>
+      </c>
+      <c r="G304" t="n">
+        <v>31226.27535952</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" t="s">
+        <v>613</v>
+      </c>
+      <c r="B305" t="s">
+        <v>614</v>
+      </c>
+      <c r="C305" t="n">
+        <v>37230</v>
+      </c>
+      <c r="D305" t="n">
+        <v>38010</v>
+      </c>
+      <c r="E305" t="n">
+        <v>36560</v>
+      </c>
+      <c r="F305" t="n">
+        <v>38010</v>
+      </c>
+      <c r="G305" t="n">
+        <v>13416.66208409</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" t="s">
+        <v>615</v>
+      </c>
+      <c r="B306" t="s">
+        <v>616</v>
+      </c>
+      <c r="C306" t="n">
+        <v>38010</v>
+      </c>
+      <c r="D306" t="n">
+        <v>38490</v>
+      </c>
+      <c r="E306" t="n">
+        <v>37180</v>
+      </c>
+      <c r="F306" t="n">
+        <v>37580</v>
+      </c>
+      <c r="G306" t="n">
+        <v>11538.74073478</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" t="s">
+        <v>617</v>
+      </c>
+      <c r="B307" t="s">
+        <v>618</v>
+      </c>
+      <c r="C307" t="n">
+        <v>37580</v>
+      </c>
+      <c r="D307" t="n">
+        <v>37630</v>
+      </c>
+      <c r="E307" t="n">
+        <v>35810</v>
+      </c>
+      <c r="F307" t="n">
+        <v>36350</v>
+      </c>
+      <c r="G307" t="n">
+        <v>18051.21026464</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" t="s">
+        <v>619</v>
+      </c>
+      <c r="B308" t="s">
+        <v>620</v>
+      </c>
+      <c r="C308" t="n">
+        <v>36350</v>
+      </c>
+      <c r="D308" t="n">
+        <v>36350</v>
+      </c>
+      <c r="E308" t="n">
+        <v>33000</v>
+      </c>
+      <c r="F308" t="n">
+        <v>33720</v>
+      </c>
+      <c r="G308" t="n">
+        <v>32975.91887221</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" t="s">
+        <v>621</v>
+      </c>
+      <c r="B309" t="s">
+        <v>622</v>
+      </c>
+      <c r="C309" t="n">
+        <v>34070</v>
+      </c>
+      <c r="D309" t="n">
+        <v>34630</v>
+      </c>
+      <c r="E309" t="n">
+        <v>32500</v>
+      </c>
+      <c r="F309" t="n">
+        <v>33980</v>
+      </c>
+      <c r="G309" t="n">
+        <v>24701.21172439</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" t="s">
+        <v>623</v>
+      </c>
+      <c r="B310" t="s">
+        <v>624</v>
+      </c>
+      <c r="C310" t="n">
+        <v>34070</v>
+      </c>
+      <c r="D310" t="n">
+        <v>34470</v>
+      </c>
+      <c r="E310" t="n">
+        <v>32100</v>
+      </c>
+      <c r="F310" t="n">
+        <v>32600</v>
+      </c>
+      <c r="G310" t="n">
+        <v>22553.02979705</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" t="s">
+        <v>625</v>
+      </c>
+      <c r="B311" t="s">
+        <v>626</v>
+      </c>
+      <c r="C311" t="n">
+        <v>32600</v>
+      </c>
+      <c r="D311" t="n">
+        <v>32600</v>
+      </c>
+      <c r="E311" t="n">
+        <v>30500</v>
+      </c>
+      <c r="F311" t="n">
+        <v>31990</v>
+      </c>
+      <c r="G311" t="n">
+        <v>24825.51603859</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" t="s">
+        <v>627</v>
+      </c>
+      <c r="B312" t="s">
+        <v>628</v>
+      </c>
+      <c r="C312" t="n">
+        <v>32130</v>
+      </c>
+      <c r="D312" t="n">
+        <v>32960</v>
+      </c>
+      <c r="E312" t="n">
+        <v>30050</v>
+      </c>
+      <c r="F312" t="n">
+        <v>30900</v>
+      </c>
+      <c r="G312" t="n">
+        <v>20983.92821645</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" t="s">
+        <v>629</v>
+      </c>
+      <c r="B313" t="s">
+        <v>630</v>
+      </c>
+      <c r="C313" t="n">
+        <v>30900</v>
+      </c>
+      <c r="D313" t="n">
+        <v>32120</v>
+      </c>
+      <c r="E313" t="n">
+        <v>30080</v>
+      </c>
+      <c r="F313" t="n">
+        <v>31730</v>
+      </c>
+      <c r="G313" t="n">
+        <v>12357.7561185</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" t="s">
+        <v>631</v>
+      </c>
+      <c r="B314" t="s">
+        <v>632</v>
+      </c>
+      <c r="C314" t="n">
+        <v>31720</v>
+      </c>
+      <c r="D314" t="n">
+        <v>32590</v>
+      </c>
+      <c r="E314" t="n">
+        <v>29680</v>
+      </c>
+      <c r="F314" t="n">
+        <v>30230</v>
+      </c>
+      <c r="G314" t="n">
+        <v>26324.66291638</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" t="s">
+        <v>633</v>
+      </c>
+      <c r="B315" t="s">
+        <v>634</v>
+      </c>
+      <c r="C315" t="n">
+        <v>30220</v>
+      </c>
+      <c r="D315" t="n">
+        <v>31770</v>
+      </c>
+      <c r="E315" t="n">
+        <v>28880</v>
+      </c>
+      <c r="F315" t="n">
+        <v>28910</v>
+      </c>
+      <c r="G315" t="n">
+        <v>36045.77299996</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" t="s">
+        <v>635</v>
+      </c>
+      <c r="B316" t="s">
+        <v>636</v>
+      </c>
+      <c r="C316" t="n">
+        <v>28910</v>
+      </c>
+      <c r="D316" t="n">
+        <v>29000</v>
+      </c>
+      <c r="E316" t="n">
+        <v>26460</v>
+      </c>
+      <c r="F316" t="n">
+        <v>26510</v>
+      </c>
+      <c r="G316" t="n">
+        <v>33564.20886868</v>
       </c>
     </row>
   </sheetData>
